--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Hazard ind-sum.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Hazard ind-sum.xlsx
@@ -32,6 +32,9 @@
     <t>P001A</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Part of a sum</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>P004A</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -126,28 +126,28 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
